--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_8_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_8_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136793.056118468</v>
+        <v>158976.8063866926</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9167573.323130395</v>
+        <v>10124182.27744494</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22176453.17582963</v>
+        <v>22038913.79229159</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4049500.391504237</v>
+        <v>4050235.849896763</v>
       </c>
     </row>
     <row r="11">
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
     <row r="45">
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L11" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M11" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N11" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O11" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P11" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K12" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L12" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L13" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M13" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N13" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O13" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P13" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K14" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L14" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M14" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N14" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O14" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P14" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K15" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L15" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q15" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L16" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M16" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N16" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O16" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P16" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K17" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L17" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M17" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N17" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O17" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P17" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K18" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L18" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L19" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M19" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N19" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O19" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P19" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K20" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L20" t="n">
-        <v>86.82148686318186</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M20" t="n">
-        <v>64.61630209323863</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N20" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O20" t="n">
-        <v>71.0718992657024</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P20" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K21" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L21" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.51914927829571</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L22" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M22" t="n">
-        <v>72.56001021962938</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N22" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O22" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P22" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K23" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L23" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M23" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N23" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O23" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P23" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K24" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L24" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L25" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M25" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N25" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O25" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P25" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K26" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L26" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M26" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N26" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O26" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P26" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K27" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L27" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L28" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M28" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N28" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O28" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P28" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K29" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L29" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M29" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N29" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O29" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P29" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q29" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K30" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L30" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L31" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M31" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N31" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O31" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P31" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K32" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L32" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M32" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N32" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O32" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P32" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q32" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K33" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L33" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L34" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M34" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N34" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O34" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P34" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K35" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L35" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M35" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N35" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O35" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P35" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K36" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L36" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q36" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L37" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M37" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N37" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O37" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P37" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K38" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L38" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M38" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N38" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O38" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P38" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K39" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L39" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L40" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M40" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N40" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O40" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P40" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K41" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L41" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M41" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N41" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O41" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P41" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K42" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L42" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L43" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M43" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N43" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O43" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P43" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>100.9387195582597</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K44" t="n">
-        <v>100.0299464227919</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>86.82148686318189</v>
+        <v>33.39854548300258</v>
       </c>
       <c r="M44" t="n">
-        <v>64.61630209323866</v>
+        <v>4.658850007114239</v>
       </c>
       <c r="N44" t="n">
-        <v>61.00144891149961</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>71.07189926570237</v>
+        <v>13.53987477884264</v>
       </c>
       <c r="P44" t="n">
-        <v>95.50771753390021</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.3816583481039</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>79.12633608862856</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K45" t="n">
-        <v>56.29524403393702</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L45" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>37.54182911310821</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.5191492782957</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>79.82491575659759</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>71.94053294496764</v>
+        <v>51.99825569640058</v>
       </c>
       <c r="M46" t="n">
-        <v>72.56001021962936</v>
+        <v>51.285670034278</v>
       </c>
       <c r="N46" t="n">
-        <v>62.89780050171086</v>
+        <v>42.23779755379654</v>
       </c>
       <c r="O46" t="n">
-        <v>78.61457070130248</v>
+        <v>59.69565574609634</v>
       </c>
       <c r="P46" t="n">
-        <v>86.52286261917671</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H11" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I11" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S11" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T11" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H12" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I12" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S12" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T12" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U12" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H13" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J13" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R13" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S13" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T13" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H14" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I14" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S14" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T14" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H15" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I15" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S15" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T15" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U15" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H16" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J16" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R16" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S16" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T16" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H17" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I17" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S17" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T17" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H18" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I18" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S18" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T18" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U18" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H19" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J19" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R19" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S19" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T19" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H20" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I20" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S20" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T20" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H21" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I21" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S21" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T21" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U21" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H22" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I22" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J22" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R22" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S22" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T22" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I23" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S23" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T23" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H24" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I24" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S24" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T24" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U24" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H25" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I25" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J25" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R25" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S25" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T25" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H26" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I26" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S26" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T26" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H27" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I27" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S27" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T27" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U27" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H28" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I28" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J28" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R28" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S28" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T28" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H29" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I29" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S29" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T29" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H30" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I30" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S30" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T30" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U30" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H31" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I31" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J31" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R31" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S31" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T31" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H32" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I32" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S32" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T32" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H33" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I33" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S33" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T33" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U33" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H34" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I34" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J34" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R34" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S34" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T34" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H35" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I35" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S35" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T35" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H36" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I36" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S36" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T36" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U36" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H37" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J37" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R37" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S37" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T37" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H38" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I38" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S38" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T38" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H39" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I39" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S39" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T39" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U39" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H40" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J40" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R40" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S40" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T40" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H41" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I41" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S41" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T41" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H42" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I42" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S42" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T42" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U42" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H43" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J43" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R43" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S43" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T43" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.3588981658848</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H44" t="n">
-        <v>329.8087073802583</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I44" t="n">
-        <v>174.0885230584365</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>90.58066941881005</v>
+        <v>63.48082925531696</v>
       </c>
       <c r="S44" t="n">
-        <v>187.5123304152058</v>
+        <v>174.5769412441708</v>
       </c>
       <c r="T44" t="n">
-        <v>218.9641928127885</v>
+        <v>212.7934253945587</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>381.6756520484107</v>
       </c>
     </row>
     <row r="45">
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.8385185906377</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H45" t="n">
-        <v>107.3582211803319</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I45" t="n">
-        <v>72.00962059397116</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>68.80362453272261</v>
+        <v>52.57876502155196</v>
       </c>
       <c r="S45" t="n">
-        <v>162.3030441088983</v>
+        <v>154.0890131332548</v>
       </c>
       <c r="T45" t="n">
-        <v>198.1292300623896</v>
+        <v>192.7745106155041</v>
       </c>
       <c r="U45" t="n">
-        <v>225.908158490674</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1326965532767</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H46" t="n">
-        <v>158.4629941912556</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7184689252781</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J46" t="n">
-        <v>63.42664968215054</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.71025749466926</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R46" t="n">
-        <v>158.2569640235438</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S46" t="n">
-        <v>216.6383466748816</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T46" t="n">
-        <v>226.1366284787861</v>
+        <v>221.4139261869805</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2959362379867</v>
+        <v>281.7246593293082</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>247.5753567161851</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>281.9607117289481</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>350477.3192830707</v>
+        <v>354509.6801561215</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
       <c r="D2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
       <c r="E2" t="n">
-        <v>75833.35620368378</v>
+        <v>77199.09324546646</v>
       </c>
       <c r="F2" t="n">
-        <v>75833.35620368378</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="G2" t="n">
-        <v>75833.35620368378</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="H2" t="n">
-        <v>75833.35620368381</v>
+        <v>77199.09324546647</v>
       </c>
       <c r="I2" t="n">
-        <v>75833.3562036838</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="J2" t="n">
-        <v>75833.35620368381</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="K2" t="n">
-        <v>75833.35620368381</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="L2" t="n">
-        <v>75833.3562036838</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="M2" t="n">
-        <v>75833.35620368378</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="N2" t="n">
-        <v>75833.35620368381</v>
+        <v>77199.09324546647</v>
       </c>
       <c r="O2" t="n">
-        <v>75833.35620368384</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="P2" t="n">
-        <v>75833.35620368381</v>
+        <v>78690.36860402086</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>188622.9869705381</v>
+        <v>238347.4490273461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>20718.94847053708</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="C4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="D4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="E4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="F4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="G4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="H4" t="n">
-        <v>17977.21900537998</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="I4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="J4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="K4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="L4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="M4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="N4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="O4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="P4" t="n">
-        <v>17977.21900537997</v>
+        <v>9486.63554762023</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="F5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="G5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="H5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="I5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="J5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="K5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="L5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="M5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="N5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="O5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="P5" t="n">
-        <v>5118.204831146673</v>
+        <v>7388.142243095836</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-6750.748617138423</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-6750.748617138423</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-6750.748617138423</v>
       </c>
       <c r="E6" t="n">
-        <v>-135885.054603381</v>
+        <v>-179408.1066738994</v>
       </c>
       <c r="F6" t="n">
-        <v>52737.93236715714</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="G6" t="n">
-        <v>52737.93236715714</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="H6" t="n">
-        <v>52737.93236715716</v>
+        <v>58939.34235344671</v>
       </c>
       <c r="I6" t="n">
-        <v>52737.93236715715</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="J6" t="n">
-        <v>52737.93236715717</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="K6" t="n">
-        <v>52737.93236715717</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="L6" t="n">
-        <v>52737.93236715715</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="M6" t="n">
-        <v>52737.93236715714</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="N6" t="n">
-        <v>52737.93236715717</v>
+        <v>58939.34235344671</v>
       </c>
       <c r="O6" t="n">
-        <v>52737.9323671572</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="P6" t="n">
-        <v>52737.93236715717</v>
+        <v>41096.64234276771</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="F3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="G3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="H3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="I3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="J3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="K3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="L3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="N3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="O3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="P3" t="n">
-        <v>234.7800381259942</v>
+        <v>326.1814319885848</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29.50909067625952</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H11" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I11" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J11" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K11" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L11" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M11" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N11" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O11" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P11" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R11" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S11" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T11" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H12" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I12" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J12" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K12" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L12" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R12" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S12" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T12" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H13" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I13" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J13" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K13" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L13" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M13" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N13" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O13" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P13" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q13" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R13" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S13" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T13" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H14" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I14" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J14" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K14" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L14" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M14" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N14" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O14" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P14" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R14" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S14" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T14" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H15" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I15" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J15" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K15" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L15" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q15" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R15" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S15" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T15" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H16" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I16" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J16" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K16" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L16" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M16" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N16" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O16" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P16" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R16" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S16" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T16" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H17" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I17" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J17" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K17" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L17" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M17" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N17" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O17" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P17" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R17" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S17" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T17" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H18" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I18" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J18" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K18" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L18" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q18" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R18" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S18" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T18" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H19" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I19" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J19" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K19" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L19" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M19" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N19" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O19" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P19" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R19" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S19" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T19" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H20" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I20" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J20" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K20" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L20" t="n">
-        <v>148.9449281068054</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M20" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N20" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O20" t="n">
-        <v>159.0263121559843</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P20" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R20" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S20" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T20" t="n">
-        <v>4.131656751342871</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H21" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I21" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J21" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K21" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L21" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q21" t="n">
-        <v>64.4626248077258</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R21" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S21" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T21" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.423373839243596</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H22" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I22" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J22" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K22" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L22" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M22" t="n">
-        <v>66.36577372797568</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N22" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O22" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P22" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.45178575702513</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R22" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S22" t="n">
-        <v>7.378251362090667</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T22" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H23" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I23" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J23" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K23" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L23" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M23" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N23" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O23" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P23" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R23" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S23" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T23" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H24" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J24" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K24" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L24" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q24" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R24" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S24" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T24" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H25" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I25" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J25" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K25" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L25" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M25" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N25" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O25" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P25" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R25" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S25" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T25" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H26" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I26" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J26" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K26" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L26" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M26" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N26" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O26" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P26" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R26" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S26" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T26" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H27" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J27" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K27" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L27" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q27" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R27" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S27" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T27" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H28" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I28" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J28" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K28" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L28" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M28" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N28" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O28" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P28" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R28" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S28" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T28" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H29" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I29" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J29" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K29" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L29" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M29" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N29" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O29" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P29" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R29" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S29" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T29" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H30" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J30" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K30" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L30" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q30" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R30" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S30" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T30" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H31" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I31" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J31" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K31" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L31" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M31" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N31" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O31" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P31" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R31" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S31" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T31" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H32" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I32" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J32" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K32" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L32" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M32" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N32" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O32" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P32" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R32" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S32" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T32" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H33" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J33" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K33" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L33" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q33" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R33" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S33" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T33" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H34" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I34" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J34" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K34" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L34" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M34" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N34" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O34" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P34" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R34" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S34" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T34" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H35" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I35" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J35" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K35" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L35" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M35" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N35" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O35" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P35" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R35" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S35" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T35" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H36" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J36" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K36" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L36" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q36" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R36" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S36" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T36" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H37" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I37" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J37" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K37" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L37" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M37" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N37" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O37" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P37" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R37" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S37" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T37" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H38" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I38" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J38" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K38" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L38" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M38" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N38" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O38" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P38" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R38" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S38" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T38" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H39" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J39" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K39" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L39" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q39" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R39" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S39" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T39" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H40" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I40" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J40" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K40" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L40" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M40" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N40" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O40" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P40" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R40" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S40" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T40" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H41" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I41" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J41" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K41" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L41" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M41" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N41" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O41" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P41" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R41" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S41" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T41" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U41" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H42" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J42" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K42" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L42" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q42" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R42" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S42" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T42" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H43" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I43" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J43" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K43" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L43" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M43" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N43" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O43" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P43" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R43" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S43" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T43" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H44" t="n">
-        <v>9.666094735508892</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I44" t="n">
-        <v>36.38736651196942</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J44" t="n">
-        <v>80.10718496842655</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K44" t="n">
-        <v>120.0599046221887</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L44" t="n">
-        <v>148.9449281068053</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>165.7299311340341</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N44" t="n">
-        <v>168.4116146850913</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O44" t="n">
-        <v>159.0263121559844</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P44" t="n">
-        <v>135.7252782213693</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.9240315263455</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R44" t="n">
-        <v>59.28844852233964</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S44" t="n">
-        <v>21.50773917103957</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T44" t="n">
-        <v>4.131656751342872</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H45" t="n">
-        <v>4.877223056164522</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38701225744391</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J45" t="n">
-        <v>47.71129057803813</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K45" t="n">
-        <v>81.54619494042197</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L45" t="n">
-        <v>109.6489225228995</v>
+        <v>142.932331575087</v>
       </c>
       <c r="M45" t="n">
-        <v>127.9551207786668</v>
+        <v>146.6963205296612</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O45" t="n">
-        <v>120.1520068700076</v>
+        <v>147.1585310520873</v>
       </c>
       <c r="P45" t="n">
-        <v>96.43257830122204</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>64.46262480772582</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R45" t="n">
-        <v>31.35420961992052</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S45" t="n">
-        <v>9.380126994939479</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T45" t="n">
-        <v>2.035498632431968</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H46" t="n">
-        <v>3.764178316183975</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I46" t="n">
-        <v>12.73200600198015</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>29.93253043452224</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K46" t="n">
-        <v>49.18834241393778</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>62.94414333627064</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M46" t="n">
-        <v>66.36577372797569</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>64.78774396352233</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O46" t="n">
-        <v>59.84196775054031</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P46" t="n">
-        <v>51.20514142997091</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.45178575702512</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R46" t="n">
-        <v>19.03642735362569</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S46" t="n">
-        <v>7.378251362090666</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T46" t="n">
-        <v>1.808960949495364</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38020,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
